--- a/Team-Data/2007-08/12-16-2007-08.xlsx
+++ b/Team-Data/2007-08/12-16-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
         <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -789,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
         <v>22</v>
@@ -798,22 +865,22 @@
         <v>25</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY2" t="n">
         <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>27</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -875,37 +942,37 @@
         <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
         <v>0.383</v>
       </c>
       <c r="O3" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
         <v>14.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,37 +1017,37 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
         <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1138,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>22</v>
@@ -1162,16 +1229,16 @@
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
         <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
         <v>5</v>
@@ -1353,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
@@ -1511,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>11</v>
@@ -1526,16 +1593,16 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>6</v>
@@ -1666,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1696,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>13</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>19</v>
@@ -1711,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
         <v>10</v>
@@ -1729,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.583</v>
+        <v>0.609</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
@@ -1776,55 +1843,55 @@
         <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>18.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="W8" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA8" t="n">
         <v>24.8</v>
@@ -1833,19 +1900,19 @@
         <v>106.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>8</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -1940,133 +2007,133 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.708</v>
+        <v>0.696</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
         <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O9" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V9" t="n">
         <v>11.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z9" t="n">
         <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -2078,13 +2145,13 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.542</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="J10" t="n">
-        <v>90.2</v>
+        <v>90.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="U10" t="n">
         <v>22.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AA10" t="n">
         <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.1</v>
+        <v>109</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,25 +2297,25 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="n">
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2260,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>25</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2397,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2445,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2576,10 +2643,10 @@
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>14</v>
@@ -2603,19 +2670,19 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>22</v>
@@ -2624,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
@@ -2686,73 +2753,73 @@
         <v>33.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
         <v>22.4</v>
       </c>
       <c r="P13" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="T13" t="n">
         <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2770,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>4</v>
@@ -2788,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>7</v>
@@ -2800,19 +2867,19 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -2850,100 +2917,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.609</v>
+        <v>0.591</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O14" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
         <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Z14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
@@ -2952,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -2979,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2991,19 +3058,19 @@
         <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
         <v>19</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3152,13 +3219,13 @@
         <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3307,13 +3374,13 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3546,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3716,7 +3783,7 @@
         <v>15</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3883,7 +3950,7 @@
         <v>19</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
@@ -4044,7 +4111,7 @@
         <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
@@ -4068,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4250,13 +4317,13 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4459,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4566,28 +4633,28 @@
         <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4611,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
@@ -4626,10 +4693,10 @@
         <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -4852,106 +4919,106 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
       <c r="J25" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.465</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
         <v>5.9</v>
       </c>
       <c r="M25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N25" t="n">
         <v>0.376</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.75</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="T25" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
         <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
@@ -4969,13 +5036,13 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>30</v>
@@ -4987,22 +5054,22 @@
         <v>11</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5133,13 +5200,13 @@
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN26" t="n">
         <v>17</v>
@@ -5148,7 +5215,7 @@
         <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5175,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ26" t="n">
         <v>23</v>
@@ -5184,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5336,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5345,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>13</v>
@@ -5542,13 +5609,13 @@
         <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -5580,67 +5647,67 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L29" t="n">
         <v>8.1</v>
       </c>
       <c r="M29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="O29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P29" t="n">
         <v>19.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.824</v>
+        <v>0.828</v>
       </c>
       <c r="R29" t="n">
         <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U29" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.9</v>
@@ -5652,34 +5719,34 @@
         <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>6</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5721,19 +5788,19 @@
         <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC29" t="n">
         <v>9</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>16</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -5873,19 +5940,19 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5909,7 +5976,7 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6043,7 +6110,7 @@
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,13 +6119,13 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-16-2007-08</t>
+          <t>2007-12-16</t>
         </is>
       </c>
     </row>
